--- a/docs/Atomic Requirements.xlsx
+++ b/docs/Atomic Requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b36cd4a17ee0da87/Documents/College/Spring 2024/Senior Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamt\Desktop\CSU-Senior-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{950C5A12-F533-40E2-917F-01279E7025CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E6E4B64-D01B-4702-B45C-08D560462F8A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3A3C39-D3FD-4645-8F17-DABD1703C4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B446EC43-4F43-4373-8E7B-53E69452A63E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
   <si>
     <t>ID Number:</t>
   </si>
@@ -338,6 +338,24 @@
   </si>
   <si>
     <t>The novel will be coded using C++ on SDL.</t>
+  </si>
+  <si>
+    <t>Test Result:</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Explanation:</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Only 2 chapters in game</t>
+  </si>
+  <si>
+    <t>Survey question x indicates people enjoyed the story</t>
   </si>
 </sst>
 </file>
@@ -353,12 +371,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -373,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -383,6 +413,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,10 +438,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,9 +461,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +501,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -572,7 +607,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -714,7 +749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -722,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ED3640-FB68-4B49-97A2-B565A1AAE25D}">
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,6 +1341,46 @@
       </c>
       <c r="T9" s="1" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Atomic Requirements.xlsx
+++ b/docs/Atomic Requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamt\Desktop\CSU-Senior-Project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b36cd4a17ee0da87/Documents/College/Spring 2024/Senior Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3A3C39-D3FD-4645-8F17-DABD1703C4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{5B3BE961-841A-42F4-B1F7-8ACF49E838EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E25E062-F2A0-49D3-9CF8-1399F746025D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B446EC43-4F43-4373-8E7B-53E69452A63E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="124">
   <si>
     <t>ID Number:</t>
   </si>
@@ -352,10 +352,68 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>Only 2 chapters in game</t>
-  </si>
-  <si>
     <t>Survey question x indicates people enjoyed the story</t>
+  </si>
+  <si>
+    <t>Only 2 chapters in game.</t>
+  </si>
+  <si>
+    <t>Roughly 75% of players experienced the same two emotions, sadness and surprise. Additionally, the short answer question showed that players experienced emotions which they otherwise would not have felt without playing the game.</t>
+  </si>
+  <si>
+    <t>22/34 survey takers reported one of the following 4 Biblical themes:
+Service and Sacrifice
+God's Will
+Faith and Love
+Forgiveness and Redemption</t>
+  </si>
+  <si>
+    <t>Chose not to implement the addition of graphics until the end, the text was able to stand on its' own without pictures to accompany the story.</t>
+  </si>
+  <si>
+    <t>The game included music which fit the mood without distracting from the text. Additionally, if a player felt it was distracting, they could mute the music at any time.</t>
+  </si>
+  <si>
+    <t>In general, the text was readable, especially on larger monitors. On smaller resolutions, the text may overlap but the game was playable through the end.</t>
+  </si>
+  <si>
+    <t>The game has 3 separate endings which display depending on reputation.</t>
+  </si>
+  <si>
+    <t>Tutorial is included.</t>
+  </si>
+  <si>
+    <t>Game written in English and familiar to westernized computer users.</t>
+  </si>
+  <si>
+    <t>Opted to go with a visual novel style rather than traditional text based game progression.</t>
+  </si>
+  <si>
+    <t>The game is playable on any Windows x64 system with minimal hardware requirements, tested by using a Windows VM.</t>
+  </si>
+  <si>
+    <t>The game does use the SDL library and the C++ language.</t>
+  </si>
+  <si>
+    <t>Game is playable by downloading and following the instructions written on itch.io</t>
+  </si>
+  <si>
+    <t>Game is supported on any Windows x64 OS.</t>
+  </si>
+  <si>
+    <t>User cannot break the game with input.</t>
+  </si>
+  <si>
+    <t>Uses an even distribution rather than any trigonometry or calculus involved distributions.</t>
+  </si>
+  <si>
+    <t>Players do not experience excessive load times, even with poor hardware.</t>
+  </si>
+  <si>
+    <t>Using itch.io and github, the game can be updated.</t>
+  </si>
+  <si>
+    <t>Based on survey results, 2 MC/Yes or No questions, and 2 open ended short answer questions, as well as a space for comments, 100% of individuals stated and generally agreed that they had a greater understanding of some of the hardships experienced by combat veterans.</t>
   </si>
 </sst>
 </file>
@@ -403,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -418,9 +476,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ED3640-FB68-4B49-97A2-B565A1AAE25D}">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,34 +1408,124 @@
       <c r="C11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>104</v>
+      <c r="D12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Atomic Requirements.xlsx
+++ b/docs/Atomic Requirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b36cd4a17ee0da87/Documents/College/Spring 2024/Senior Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamt\Desktop\CSU-Senior-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{5B3BE961-841A-42F4-B1F7-8ACF49E838EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E25E062-F2A0-49D3-9CF8-1399F746025D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0AAAFC-79E8-4752-B73F-DF99147301E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B446EC43-4F43-4373-8E7B-53E69452A63E}"/>
   </bookViews>
@@ -352,9 +352,6 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>Survey question x indicates people enjoyed the story</t>
-  </si>
-  <si>
     <t>Only 2 chapters in game.</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>Based on survey results, 2 MC/Yes or No questions, and 2 open ended short answer questions, as well as a space for comments, 100% of individuals stated and generally agreed that they had a greater understanding of some of the hardships experienced by combat veterans.</t>
+  </si>
+  <si>
+    <t>Players, without prompting, commented overwhelmingly on the literary quality of the work.  Additionally, the similarities between responses on emotional impact, biblical themes, and what was garnered from the story all relate to the ability of the work to stand on its' own.</t>
   </si>
 </sst>
 </file>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ED3640-FB68-4B49-97A2-B565A1AAE25D}">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,64 +1468,64 @@
         <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
